--- a/DataPemesan.xlsx
+++ b/DataPemesan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,10 +527,8 @@
           <t>Prima Noviani</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>085385415710</t>
-        </is>
+      <c r="B3" t="n">
+        <v>85385415710</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -556,6 +554,188 @@
         <v>1</v>
       </c>
       <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>theo</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>98765432123</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jogja</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22-06-2022</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>theo</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85385715710</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wonokerto</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13-06-2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Riyan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85385415710</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Surakarta</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16-06-2022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Putra </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85385415710</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Wonokerto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29-06-2022</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Izul</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>085385415710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Karanganyar</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29-06-2022</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
